--- a/ML_Unit2/Numerical Examples.xlsx
+++ b/ML_Unit2/Numerical Examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93c4ddfd9869a0cf/consulting/dono/idma_pt_public/ML_Unit2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="8_{B53E1358-04C0-F346-8623-2140053B0E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D7D077F-C6F1-8149-BCCC-6B8D70AD82B4}"/>
+  <xr:revisionPtr revIDLastSave="773" documentId="8_{B53E1358-04C0-F346-8623-2140053B0E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EBE3599-8841-7445-8596-0EFDE6B5AFEB}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="15520" activeTab="5" xr2:uid="{ECAB7E24-608D-CE4D-8CF3-A67A0795359D}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="15520" firstSheet="2" activeTab="9" xr2:uid="{ECAB7E24-608D-CE4D-8CF3-A67A0795359D}"/>
   </bookViews>
   <sheets>
     <sheet name="One Feature" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,15 @@
     <sheet name="Gradient Descent Recall" sheetId="5" r:id="rId4"/>
     <sheet name="Grad Descent Linear Regression" sheetId="7" r:id="rId5"/>
     <sheet name="Vector Notation" sheetId="8" r:id="rId6"/>
+    <sheet name="Non Linear Seprability" sheetId="9" r:id="rId7"/>
+    <sheet name="Non Linear Regression" sheetId="11" r:id="rId8"/>
+    <sheet name="Cross Validation" sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
   <si>
     <t>x</t>
   </si>
@@ -157,12 +164,63 @@
   <si>
     <t>xi3</t>
   </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>New Feature</t>
+  </si>
+  <si>
+    <t>x'</t>
+  </si>
+  <si>
+    <t>Quantify how far am I from my actual values</t>
+  </si>
+  <si>
+    <t>Cost function</t>
+  </si>
+  <si>
+    <t>eta (lr)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>theta_2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>Avg(E1,E2,E3,E4)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,16 +249,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -353,11 +425,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,6 +581,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1698,154 +1912,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>-11.038297500000001</c:v>
+                  <c:v>-6.235100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-16.217817</c:v>
+                  <c:v>-9.2377199999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-33.137734799999997</c:v>
+                  <c:v>-19.046367999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.0401684000000007</c:v>
+                  <c:v>-3.9173440000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-115.58053559999999</c:v>
+                  <c:v>-66.83929599999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-74.972593499999988</c:v>
+                  <c:v>-43.298459999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.049766869999999</c:v>
+                  <c:v>23.381169199999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-37.609224599999997</c:v>
+                  <c:v>-21.638536000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.113527250000001</c:v>
+                  <c:v>16.46161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-34.126939499999999</c:v>
+                  <c:v>-19.619820000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.826031990000004</c:v>
+                  <c:v>25.570308400000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126.39222825</c:v>
+                  <c:v>73.43477</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.117527550000002</c:v>
+                  <c:v>12.405958</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-72.409857599999995</c:v>
+                  <c:v>-41.812815999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-94.296968100000001</c:v>
+                  <c:v>-54.500996000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-12.419022</c:v>
+                  <c:v>-7.03552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>93.767610300000001</c:v>
+                  <c:v>54.521948000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-73.562923499999997</c:v>
+                  <c:v>-42.481259999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-78.937823400000013</c:v>
+                  <c:v>-45.597144</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.3273397899999999</c:v>
+                  <c:v>4.9913563999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>92.498163480000002</c:v>
+                  <c:v>53.786036799999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.667586709999998</c:v>
+                  <c:v>15.6233836</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-41.392998300000002</c:v>
+                  <c:v>-23.832028000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>34.984617630000002</c:v>
+                  <c:v>20.444850800000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-139.88451600000002</c:v>
+                  <c:v>-80.928560000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-12.657499799999998</c:v>
+                  <c:v>-7.1737679999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>126.44764008</c:v>
+                  <c:v>73.466892799999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-44.466023700000001</c:v>
+                  <c:v>-25.613492000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>70.072178159999993</c:v>
+                  <c:v>40.785465599999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-39.058755900000001</c:v>
+                  <c:v>-22.478843999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-38.876671799999997</c:v>
+                  <c:v>-22.373287999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>168.03749979</c:v>
+                  <c:v>97.5769564</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30.76813044</c:v>
+                  <c:v>18.0005104</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.3289824899999996</c:v>
+                  <c:v>3.8328883999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.61609245</c:v>
+                  <c:v>16.173241999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.20385151</c:v>
+                  <c:v>15.354551600000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-106.09841759999999</c:v>
+                  <c:v>-61.342416</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-45.050840099999995</c:v>
+                  <c:v>-25.952515999999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-19.120771199999997</c:v>
+                  <c:v>-10.920591999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-58.606766400000005</c:v>
+                  <c:v>-33.811024000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-95.784394200000008</c:v>
+                  <c:v>-55.363272000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>64.495810680000005</c:v>
+                  <c:v>37.552788800000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>78.67528446</c:v>
+                  <c:v>45.772773600000008</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-130.64508480000001</c:v>
+                  <c:v>-75.572367999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>54.5097843</c:v>
+                  <c:v>31.763788000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>49.636589610000001</c:v>
+                  <c:v>28.938747599999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-152.08940849999999</c:v>
+                  <c:v>-88.003859999999989</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>61.398467609999997</c:v>
+                  <c:v>35.7572276</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18.131921010000003</c:v>
+                  <c:v>10.675171600000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-79.268754299999998</c:v>
+                  <c:v>-45.788987999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4123,6 +4337,765 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Kernel Trick'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E43E-C747-81C9-35F8602E48F5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E43E-C747-81C9-35F8602E48F5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Kernel Trick'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E43E-C747-81C9-35F8602E48F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="455074896"/>
+        <c:axId val="455072600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="455074896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455072600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="455072600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455074896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Kernel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-8AD2-D34F-9E42-1EDDC8A54421}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8AD2-D34F-9E42-1EDDC8A54421}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Kernel Trick'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Kernel Trick'!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0954451150103321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63245553203367577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63245553203367577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0954451150103324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8AD2-D34F-9E42-1EDDC8A54421}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375016336"/>
+        <c:axId val="375018064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375016336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375018064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="375018064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375016336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4244,6 +5217,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6347,6 +7400,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6393,8 +8478,8 @@
       <xdr:rowOff>39121</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1631922" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -6626,7 +8711,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -6692,16 +8777,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>640731</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>456581</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>127573</xdr:rowOff>
+      <xdr:rowOff>178373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>285513</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101363</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>63405</xdr:rowOff>
+      <xdr:rowOff>114205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6792,8 +8877,8 @@
       <xdr:rowOff>70529</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="930511" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -6835,6 +8920,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6979,7 +9065,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -7144,8 +9230,8 @@
       <xdr:rowOff>70529</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="930511" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -7187,6 +9273,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7331,7 +9418,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -7395,8 +9482,8 @@
       <xdr:rowOff>14515</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="628249" cy="208692"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="217" name="TextBox 216">
@@ -7438,6 +9525,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7537,7 +9625,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="217" name="TextBox 216">
@@ -7606,8 +9694,8 @@
       <xdr:rowOff>27609</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1200457" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -7649,6 +9737,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7712,7 +9801,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -7788,8 +9877,8 @@
       <xdr:rowOff>39756</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="119905" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -7831,6 +9920,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7851,7 +9941,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -7915,8 +10005,8 @@
       <xdr:rowOff>19878</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="513217" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -7958,6 +10048,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8009,7 +10100,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -8073,8 +10164,8 @@
       <xdr:rowOff>1103</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="635559" cy="197679"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -8116,6 +10207,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8151,7 +10243,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -8213,13 +10305,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2637734</xdr:colOff>
+      <xdr:colOff>1672534</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>17669</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1470211" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="1506823" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -8233,8 +10325,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3465995" y="3082234"/>
-              <a:ext cx="1470211" cy="172227"/>
+              <a:off x="2500795" y="3286539"/>
+              <a:ext cx="1506823" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8261,6 +10353,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8333,7 +10426,7 @@
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>𝜂</m:t>
+                      <m:t>𝑙𝑟</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -8355,7 +10448,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -8369,8 +10462,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3465995" y="3082234"/>
-              <a:ext cx="1470211" cy="172227"/>
+              <a:off x="2500795" y="3286539"/>
+              <a:ext cx="1506823" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8401,7 +10494,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝜃_𝑛𝑒𝑤≔𝜃_𝑜𝑙𝑑−𝜂∗𝑔𝑟𝑎𝑑</a:t>
+                <a:t>𝜃_𝑛𝑒𝑤≔𝜃_𝑜𝑙𝑑−𝑙𝑟∗𝑔𝑟𝑎𝑑</a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1100"/>
             </a:p>
@@ -8419,8 +10512,8 @@
       <xdr:rowOff>19878</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="513217" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -8462,6 +10555,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8513,7 +10607,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -8577,8 +10671,8 @@
       <xdr:rowOff>1103</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="635559" cy="197679"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -8620,6 +10714,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8655,7 +10750,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -8717,13 +10812,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2637734</xdr:colOff>
+      <xdr:colOff>1672534</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>17669</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1470211" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="1506823" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -8737,8 +10832,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2500795" y="3286539"/>
-              <a:ext cx="1470211" cy="172227"/>
+              <a:off x="2500795" y="4512365"/>
+              <a:ext cx="1506823" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8765,6 +10860,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8837,7 +10933,7 @@
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>𝜂</m:t>
+                      <m:t>𝑙𝑟</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -8859,7 +10955,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -8873,8 +10969,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2500795" y="3286539"/>
-              <a:ext cx="1470211" cy="172227"/>
+              <a:off x="2500795" y="4512365"/>
+              <a:ext cx="1506823" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8905,7 +11001,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝜃_𝑛𝑒𝑤≔𝜃_𝑜𝑙𝑑−𝜂∗𝑔𝑟𝑎𝑑</a:t>
+                <a:t>𝜃_𝑛𝑒𝑤≔𝜃_𝑜𝑙𝑑−𝑙𝑟∗𝑔𝑟𝑎𝑑</a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1100"/>
             </a:p>
@@ -8923,8 +11019,8 @@
       <xdr:rowOff>19878</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="513217" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -8966,6 +11062,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9017,7 +11114,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -9081,8 +11178,8 @@
       <xdr:rowOff>1103</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="635559" cy="197679"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -9124,6 +11221,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9159,7 +11257,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -9221,13 +11319,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2637734</xdr:colOff>
+      <xdr:colOff>1672534</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>17669</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1470211" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="1506823" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -9241,8 +11339,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2500795" y="4512365"/>
-              <a:ext cx="1470211" cy="172227"/>
+              <a:off x="2500795" y="5738191"/>
+              <a:ext cx="1506823" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9269,6 +11367,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9341,7 +11440,7 @@
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>𝜂</m:t>
+                      <m:t>𝑙𝑟</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -9363,7 +11462,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -9377,8 +11476,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2500795" y="4512365"/>
-              <a:ext cx="1470211" cy="172227"/>
+              <a:off x="2500795" y="5738191"/>
+              <a:ext cx="1506823" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9409,7 +11508,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝜃_𝑛𝑒𝑤≔𝜃_𝑜𝑙𝑑−𝜂∗𝑔𝑟𝑎𝑑</a:t>
+                <a:t>𝜃_𝑛𝑒𝑤≔𝜃_𝑜𝑙𝑑−𝑙𝑟∗𝑔𝑟𝑎𝑑</a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1100"/>
             </a:p>
@@ -9528,8 +11627,8 @@
       <xdr:rowOff>58057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="827316" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -9571,6 +11670,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9647,7 +11747,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -9711,8 +11811,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="827316" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -9754,6 +11854,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9855,7 +11956,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -9919,8 +12020,8 @@
       <xdr:rowOff>58057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="827316" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -9962,6 +12063,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10038,7 +12140,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -10102,8 +12204,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="827316" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -10145,6 +12247,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10246,7 +12349,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -10315,8 +12418,8 @@
       <xdr:rowOff>12095</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1921936" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -10358,6 +12461,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10626,7 +12730,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -10743,8 +12847,8 @@
       <xdr:rowOff>16934</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="570797" cy="614335"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -10786,6 +12890,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10981,7 +13086,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -11051,8 +13156,8 @@
       <xdr:rowOff>202875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="472694" cy="658450"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -11094,6 +13199,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11262,7 +13368,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -11332,8 +13438,8 @@
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1604606" cy="181268"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -11469,7 +13575,7 @@
                   <m:sSubSup>
                     <m:sSubSupPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -11583,7 +13689,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -11643,6 +13749,1294 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABAD51E1-D836-BA41-B2B7-E9F01E701A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>599440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F14C19A-AA1B-A94A-84F2-449A60C72A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>202068</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125220</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1232773" cy="326949"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E93AC73-1B7D-6342-884A-6F9F4022E606}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="202068" y="1540825"/>
+              <a:ext cx="1232773" cy="326949"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜙</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:m>
+                      <m:mPr>
+                        <m:mcs>
+                          <m:mc>
+                            <m:mcPr>
+                              <m:count m:val="1"/>
+                              <m:mcJc m:val="center"/>
+                            </m:mcPr>
+                          </m:mc>
+                        </m:mcs>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:mPr>
+                      <m:mr>
+                        <m:e>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝜙</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:mr>
+                      <m:mr>
+                        <m:e>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝜙</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:mr>
+                    </m:m>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:m>
+                      <m:mPr>
+                        <m:mcs>
+                          <m:mc>
+                            <m:mcPr>
+                              <m:count m:val="1"/>
+                              <m:mcJc m:val="center"/>
+                            </m:mcPr>
+                          </m:mc>
+                        </m:mcs>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:mPr>
+                      <m:mr>
+                        <m:e>
+                          <m:r>
+                            <m:rPr>
+                              <m:brk m:alnAt="7"/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:mr>
+                      <m:mr>
+                        <m:e>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:e>
+                      </m:mr>
+                    </m:m>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E93AC73-1B7D-6342-884A-6F9F4022E606}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="202068" y="1540825"/>
+              <a:ext cx="1232773" cy="326949"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜙(𝑥)=■8(𝜙_1 (𝑥)@𝜙_2 (𝑥))= ■8(𝑥@𝑥^2 )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="670633" cy="258340"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F35F25F-C647-6E49-A05F-68E3A462C924}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2497667" y="558800"/>
+              <a:ext cx="670633" cy="258340"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝝓</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝒙</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:m>
+                    <m:mPr>
+                      <m:mcs>
+                        <m:mc>
+                          <m:mcPr>
+                            <m:count m:val="1"/>
+                            <m:mcJc m:val="center"/>
+                          </m:mcPr>
+                        </m:mc>
+                      </m:mcs>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-GB" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:mPr>
+                    <m:mr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:mr>
+                    <m:mr>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒙</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝟐</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:mr>
+                  </m:m>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F35F25F-C647-6E49-A05F-68E3A462C924}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2497667" y="558800"/>
+              <a:ext cx="670633" cy="258340"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝝓(𝒙)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>@</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒙^𝟐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{254C2037-440F-104B-BE8A-D8F7E1191AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2218267" y="838201"/>
+          <a:ext cx="2167466" cy="16933"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>67734</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="670633" cy="258340"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11570F12-0207-254C-B4E0-3C650DD946A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="67734" y="84667"/>
+              <a:ext cx="670633" cy="258340"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝝓</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝒙</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:m>
+                    <m:mPr>
+                      <m:mcs>
+                        <m:mc>
+                          <m:mcPr>
+                            <m:count m:val="1"/>
+                            <m:mcJc m:val="center"/>
+                          </m:mcPr>
+                        </m:mc>
+                      </m:mcs>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-GB" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:mPr>
+                    <m:mr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:mr>
+                    <m:mr>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝒙</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝟐</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:mr>
+                  </m:m>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11570F12-0207-254C-B4E0-3C650DD946A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="67734" y="84667"/>
+              <a:ext cx="670633" cy="258340"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝝓(𝒙)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>@</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒙^𝟐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="670633" cy="425501"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED94B27-6999-1146-B0E3-6FBEA9AEEC82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="5080000"/>
+              <a:ext cx="670633" cy="425501"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝝓</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝒙</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:m>
+                    <m:mPr>
+                      <m:mcs>
+                        <m:mc>
+                          <m:mcPr>
+                            <m:count m:val="1"/>
+                            <m:mcJc m:val="center"/>
+                          </m:mcPr>
+                        </m:mc>
+                      </m:mcs>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-GB" sz="1100" b="1" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:mPr>
+                    <m:mr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝒙</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:mr>
+                    <m:mr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝒙</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝟐</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:e>
+                          <m:e>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝒙</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝟑</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:mr>
+                  </m:m>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED94B27-6999-1146-B0E3-6FBEA9AEEC82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="5080000"/>
+              <a:ext cx="670633" cy="425501"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝝓(𝒙)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>@</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>█(𝒙^𝟐@𝒙^𝟑 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hard Margin SVM"/>
+      <sheetName val="Kernel Trick"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>EPS</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>0.2</v>
+          </cell>
+          <cell r="C4">
+            <v>1.0954451150103321</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>0.4</v>
+          </cell>
+          <cell r="C5">
+            <v>0.63245553203367577</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>0.6</v>
+          </cell>
+          <cell r="C6">
+            <v>0.63245553203367577</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>0.8</v>
+          </cell>
+          <cell r="C7">
+            <v>1.0954451150103324</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11945,7 +15339,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView zoomScale="174" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12367,18 +15761,30 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F5B51A-ED4A-F644-84E4-E003B0989939}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E633604-689D-7B42-8E70-DA4CDC185D3B}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="3" max="4" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -12391,6 +15797,7 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
@@ -12400,9 +15807,10 @@
         <v>-10.823492</v>
       </c>
       <c r="C2" s="5">
-        <f>E$4+F$4*A2</f>
-        <v>-11.038297500000001</v>
-      </c>
+        <f t="shared" ref="C2:C33" si="0">E$4+F$4*A2</f>
+        <v>-6.235100000000001</v>
+      </c>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -12412,14 +15820,15 @@
         <v>-14.141714</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C51" si="0">E$4+F$4*A3</f>
-        <v>-16.217817</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>-9.2377199999999995</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -12431,13 +15840,14 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>-33.137734799999997</v>
-      </c>
+        <v>-19.046367999999998</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5">
         <v>0.39</v>
       </c>
       <c r="F4" s="5">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -12449,8 +15859,9 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>-7.0401684000000007</v>
-      </c>
+        <v>-3.9173440000000004</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -12461,8 +15872,9 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>-115.58053559999999</v>
-      </c>
+        <v>-66.83929599999999</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -12473,8 +15885,9 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>-74.972593499999988</v>
-      </c>
+        <v>-43.298459999999992</v>
+      </c>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -12485,8 +15898,9 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>40.049766869999999</v>
-      </c>
+        <v>23.381169199999999</v>
+      </c>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -12497,7 +15911,11 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>-37.609224599999997</v>
+        <v>-21.638536000000002</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -12509,7 +15927,11 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>28.113527250000001</v>
+        <v>16.46161</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -12521,8 +15943,9 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>-34.126939499999999</v>
-      </c>
+        <v>-19.619820000000001</v>
+      </c>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -12533,8 +15956,9 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>43.826031990000004</v>
-      </c>
+        <v>25.570308400000002</v>
+      </c>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -12545,8 +15969,9 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>126.39222825</v>
-      </c>
+        <v>73.43477</v>
+      </c>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -12557,8 +15982,9 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>21.117527550000002</v>
-      </c>
+        <v>12.405958</v>
+      </c>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -12569,8 +15995,9 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>-72.409857599999995</v>
-      </c>
+        <v>-41.812815999999998</v>
+      </c>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -12581,10 +16008,11 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>-94.296968100000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-54.500996000000001</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>-0.185638</v>
       </c>
@@ -12593,10 +16021,11 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>-12.419022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.03552</v>
+      </c>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1.3532987000000001</v>
       </c>
@@ -12605,10 +16034,11 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>93.767610300000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54.521948000000002</v>
+      </c>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>-1.0717814999999999</v>
       </c>
@@ -12617,10 +16047,11 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>-73.562923499999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-42.481259999999999</v>
+      </c>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>-1.1496786000000001</v>
       </c>
@@ -12629,10 +16060,11 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>-78.937823400000013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-45.597144</v>
+      </c>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.11503391</v>
       </c>
@@ -12641,10 +16073,11 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>8.3273397899999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.9913563999999999</v>
+      </c>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1.3349009199999999</v>
       </c>
@@ -12653,10 +16086,11 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>92.498163480000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53.786036799999998</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.38083458999999997</v>
       </c>
@@ -12665,10 +16099,11 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>26.667586709999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15.6233836</v>
+      </c>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>-0.6055507</v>
       </c>
@@ -12677,10 +16112,11 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>-41.392998300000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-23.832028000000001</v>
+      </c>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.50137127000000004</v>
       </c>
@@ -12689,10 +16125,11 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>34.984617630000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20.444850800000001</v>
+      </c>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>-2.0329640000000002</v>
       </c>
@@ -12701,10 +16138,11 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>-139.88451600000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-80.928560000000004</v>
+      </c>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>-0.18909419999999999</v>
       </c>
@@ -12713,10 +16151,11 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>-12.657499799999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.1737679999999999</v>
+      </c>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1.82692232</v>
       </c>
@@ -12725,10 +16164,11 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>126.44764008</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73.466892799999997</v>
+      </c>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>-0.65008730000000003</v>
       </c>
@@ -12737,10 +16177,11 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>-44.466023700000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-25.613492000000001</v>
+      </c>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1.0098866399999999</v>
       </c>
@@ -12749,10 +16190,11 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>70.072178159999993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40.785465599999995</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>-0.57172109999999998</v>
       </c>
@@ -12761,10 +16203,11 @@
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>-39.058755900000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-22.478843999999999</v>
+      </c>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>-0.56908219999999998</v>
       </c>
@@ -12773,10 +16216,11 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>-38.876671799999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-22.373287999999999</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2.42967391</v>
       </c>
@@ -12785,10 +16229,11 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>168.03749979</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97.5769564</v>
+      </c>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0.44026275999999998</v>
       </c>
@@ -12796,11 +16241,12 @@
         <v>32.6311909</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="0"/>
-        <v>30.76813044</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C34:C51" si="1">E$4+F$4*A34</f>
+        <v>18.0005104</v>
+      </c>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>8.6072209999999996E-2</v>
       </c>
@@ -12808,11 +16254,12 @@
         <v>6.44692183</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="0"/>
-        <v>6.3289824899999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.8328883999999999</v>
+      </c>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0.39458104999999999</v>
       </c>
@@ -12820,11 +16267,12 @@
         <v>27.549579699999999</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="0"/>
-        <v>27.61609245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>16.173241999999998</v>
+      </c>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>0.37411379</v>
       </c>
@@ -12832,11 +16280,12 @@
         <v>29.690543999999999</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="0"/>
-        <v>26.20385151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>15.354551600000001</v>
+      </c>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>-1.5433104</v>
       </c>
@@ -12844,11 +16293,12 @@
         <v>-105.89570999999999</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="0"/>
-        <v>-106.09841759999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>-61.342416</v>
+      </c>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>-0.65856289999999995</v>
       </c>
@@ -12856,11 +16306,12 @@
         <v>-47.546590999999999</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="0"/>
-        <v>-45.050840099999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>-25.952515999999996</v>
+      </c>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>-0.28276479999999998</v>
       </c>
@@ -12868,11 +16319,12 @@
         <v>-19.639564</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="0"/>
-        <v>-19.120771199999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>-10.920591999999999</v>
+      </c>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>-0.85502560000000005</v>
       </c>
@@ -12880,11 +16332,12 @@
         <v>-63.159528000000002</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="0"/>
-        <v>-58.606766400000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>-33.811024000000003</v>
+      </c>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>-1.3938318000000001</v>
       </c>
@@ -12892,11 +16345,12 @@
         <v>-95.754503</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="0"/>
-        <v>-95.784394200000008</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>-55.363272000000002</v>
+      </c>
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>0.92906971999999999</v>
       </c>
@@ -12904,11 +16358,12 @@
         <v>66.078068599999995</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="0"/>
-        <v>64.495810680000005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>37.552788800000002</v>
+      </c>
+      <c r="D43" s="25"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1.1345693400000001</v>
       </c>
@@ -12916,11 +16371,12 @@
         <v>76.1064255</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="0"/>
-        <v>78.67528446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>45.772773600000008</v>
+      </c>
+      <c r="D44" s="25"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>-1.8990591999999999</v>
       </c>
@@ -12928,11 +16384,12 @@
         <v>-132.1301</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="0"/>
-        <v>-130.64508480000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>-75.572367999999997</v>
+      </c>
+      <c r="D45" s="25"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>0.78434470000000001</v>
       </c>
@@ -12940,11 +16397,12 @@
         <v>59.155936599999997</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="0"/>
-        <v>54.5097843</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>31.763788000000002</v>
+      </c>
+      <c r="D46" s="25"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>0.71371868999999999</v>
       </c>
@@ -12952,11 +16410,12 @@
         <v>48.505242099999997</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" si="0"/>
-        <v>49.636589610000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>28.938747599999999</v>
+      </c>
+      <c r="D47" s="25"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>-2.2098464999999998</v>
       </c>
@@ -12964,11 +16423,12 @@
         <v>-150.61857000000001</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" si="0"/>
-        <v>-152.08940849999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>-88.003859999999989</v>
+      </c>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>0.88418068999999999</v>
       </c>
@@ -12976,11 +16436,12 @@
         <v>63.104398799999998</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="0"/>
-        <v>61.398467609999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>35.7572276</v>
+      </c>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>0.25712929000000001</v>
       </c>
@@ -12988,11 +16449,12 @@
         <v>11.190668499999999</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="0"/>
-        <v>18.131921010000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>10.675171600000001</v>
+      </c>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>-1.1544747</v>
       </c>
@@ -13000,9 +16462,10 @@
         <v>-77.997404000000003</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="0"/>
-        <v>-79.268754299999998</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-45.788987999999996</v>
+      </c>
+      <c r="D51" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13015,7 +16478,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13082,7 +16545,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -13917,8 +17380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E97DC8-9222-6347-8A82-495C460530DE}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="230" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A15" zoomScale="230" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14053,7 +17516,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C15" s="14">
         <v>0.01</v>
@@ -14231,8 +17694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5021F05E-D121-5C4D-A1BD-87C2EF6209C1}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14283,7 +17746,7 @@
         <v>-10.823492</v>
       </c>
       <c r="C2" s="5">
-        <f>K$4+L$4*A2</f>
+        <f t="shared" ref="C2:C33" si="0">K$4+L$4*A2</f>
         <v>3.3748999999999993</v>
       </c>
       <c r="D2" s="6">
@@ -14319,27 +17782,27 @@
         <v>-14.141714</v>
       </c>
       <c r="C3" s="5">
-        <f>K$4+L$4*A3</f>
+        <f t="shared" si="0"/>
         <v>0.37227999999999994</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D51" si="0">B3-C3</f>
+        <f t="shared" ref="D3:D51" si="1">B3-C3</f>
         <v>-14.513994</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E51" si="1">D3*A3</f>
+        <f t="shared" ref="E3:E51" si="2">D3*A3</f>
         <v>3.4934167578420001</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F51" si="2">K$7+A3*L$7</f>
+        <f t="shared" ref="F3:F51" si="3">K$7+A3*L$7</f>
         <v>0.16182112519837766</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G51" si="3">B3-F3</f>
+        <f t="shared" ref="G3:G51" si="4">B3-F3</f>
         <v>-14.303535125198378</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H51" si="4">G3*A3</f>
+        <f t="shared" ref="H3:H51" si="5">G3*A3</f>
         <v>3.4427607798893729</v>
       </c>
       <c r="I3" s="10"/>
@@ -14368,27 +17831,27 @@
         <v>-32.409433999999997</v>
       </c>
       <c r="C4" s="5">
-        <f>K$4+L$4*A4</f>
+        <f t="shared" si="0"/>
         <v>-9.4363679999999981</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-22.973065999999999</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.1628241216072</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.7294095075759746</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-22.680024492424025</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.020432557094164</v>
       </c>
       <c r="I4" s="10"/>
@@ -14419,27 +17882,27 @@
         <v>-9.0656832999999999</v>
       </c>
       <c r="C5" s="5">
-        <f>K$4+L$4*A5</f>
+        <f t="shared" si="0"/>
         <v>5.6926559999999995</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-14.758339299999999</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.58923110584548</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5269913371457822</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-14.592674637145782</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5713917385565517</v>
       </c>
       <c r="I5" s="10"/>
@@ -14453,27 +17916,27 @@
         <v>-116.62475999999999</v>
       </c>
       <c r="C6" s="5">
-        <f>K$4+L$4*A6</f>
+        <f t="shared" si="0"/>
         <v>-57.229295999999991</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-59.395464000000004</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.827880757833597</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-57.924723832606198</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-58.700036167393797</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98.659052667710569</v>
       </c>
       <c r="I6" s="10"/>
@@ -14493,27 +17956,27 @@
         <v>-78.386308999999997</v>
       </c>
       <c r="C7" s="5">
-        <f>K$4+L$4*A7</f>
+        <f t="shared" si="0"/>
         <v>-33.688459999999992</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-44.697849000000005</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.819504703063501</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-34.185688833662688</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-44.200620166337309</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.276425652805514</v>
       </c>
       <c r="I7" s="10"/>
@@ -14535,27 +17998,27 @@
         <v>39.086097000000002</v>
       </c>
       <c r="C8" s="5">
-        <f>K$4+L$4*A8</f>
+        <f t="shared" si="0"/>
         <v>32.991169200000002</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0949278000000007</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5032379077895941</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.055340809268245</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0307561907317577</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4663533996265325</v>
       </c>
       <c r="I8" s="10"/>
@@ -14569,27 +18032,27 @@
         <v>-41.595868000000003</v>
       </c>
       <c r="C9" s="5">
-        <f>K$4+L$4*A9</f>
+        <f t="shared" si="0"/>
         <v>-12.028536000000003</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-29.567332</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.283125934648801</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-12.343401928029584</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-29.252466071970417</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.109725048879472</v>
       </c>
       <c r="I9" s="10"/>
@@ -14605,27 +18068,27 @@
         <v>23.983129999999999</v>
       </c>
       <c r="C10" s="5">
-        <f>K$4+L$4*A10</f>
+        <f t="shared" si="0"/>
         <v>26.07161</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.0884800000000006</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.83913090132000023</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.077523282904203</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.0943932829042033</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.84150680073640061</v>
       </c>
       <c r="I10" s="10"/>
@@ -14654,27 +18117,27 @@
         <v>-33.641916999999999</v>
       </c>
       <c r="C11" s="5">
-        <f>K$4+L$4*A11</f>
+        <f t="shared" si="0"/>
         <v>-10.009820000000001</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-23.632096999999998</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.821850179813499</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-10.307689611911018</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-23.334227388088983</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.672842246868267</v>
       </c>
       <c r="I11" s="10"/>
@@ -14707,27 +18170,27 @@
         <v>43.808776299999998</v>
       </c>
       <c r="C12" s="5">
-        <f>K$4+L$4*A12</f>
+        <f t="shared" si="0"/>
         <v>35.180308400000001</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6284678999999969</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4316870685375074</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.262911181295777</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5458651187042207</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3796879808443725</v>
       </c>
       <c r="I12" s="10"/>
@@ -14741,27 +18204,27 @@
         <v>131.71287699999999</v>
       </c>
       <c r="C13" s="5">
-        <f>K$4+L$4*A13</f>
+        <f t="shared" si="0"/>
         <v>83.04477</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.668106999999992</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88.873767053759735</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83.530361374143126</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.182515625856865</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87.98701929780303</v>
       </c>
       <c r="I13" s="10"/>
@@ -14781,27 +18244,27 @@
         <v>16.181805300000001</v>
       </c>
       <c r="C14" s="5">
-        <f>K$4+L$4*A14</f>
+        <f t="shared" si="0"/>
         <v>22.015957999999998</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.8341526999999971</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.7525733452196641</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.987725249752991</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.8059199497529903</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.7440922566898511</v>
       </c>
       <c r="I14" s="10"/>
@@ -14823,27 +18286,27 @@
         <v>-72.612886000000003</v>
       </c>
       <c r="C15" s="5">
-        <f>K$4+L$4*A15</f>
+        <f t="shared" si="0"/>
         <v>-32.202815999999999</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-40.410070000000005</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.635468718928003</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-32.687536647734781</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-39.925349352265222</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.124054311234204</v>
       </c>
       <c r="I15" s="10"/>
@@ -14857,27 +18320,27 @@
         <v>-91.941316999999998</v>
       </c>
       <c r="C16" s="5">
-        <f>K$4+L$4*A16</f>
+        <f t="shared" si="0"/>
         <v>-44.890996000000001</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-47.050320999999997</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.565974545242895</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-45.482543124688071</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-46.458773875311927</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.754209273866287</v>
       </c>
       <c r="I16" s="10"/>
@@ -14891,27 +18354,27 @@
         <v>-4.3803729999999996</v>
       </c>
       <c r="C17" s="5">
-        <f>K$4+L$4*A17</f>
+        <f t="shared" si="0"/>
         <v>2.5744800000000003</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.954853</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.291085001214</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3825622609283661</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.7629352609283657</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2554577759682199</v>
       </c>
       <c r="I17" s="10"/>
@@ -14925,27 +18388,27 @@
         <v>97.5186128</v>
       </c>
       <c r="C18" s="5">
-        <f>K$4+L$4*A18</f>
+        <f t="shared" si="0"/>
         <v>64.131947999999994</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.386664800000005</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.18213007117577</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64.458305335573016</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.060307464426984</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44.740471113209338</v>
       </c>
       <c r="I18" s="10"/>
@@ -14959,27 +18422,27 @@
         <v>-73.404396000000006</v>
       </c>
       <c r="C19" s="5">
-        <f>K$4+L$4*A19</f>
+        <f t="shared" si="0"/>
         <v>-32.871259999999999</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-40.533136000000006</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.442665301784004</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-33.361608524826735</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-40.04278747517327</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.917118824322415</v>
       </c>
       <c r="I19" s="10"/>
@@ -14993,27 +18456,27 @@
         <v>-81.747405000000001</v>
       </c>
       <c r="C20" s="5">
-        <f>K$4+L$4*A20</f>
+        <f t="shared" si="0"/>
         <v>-35.987144000000001</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-45.760261</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.609592802114605</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-36.503726303849035</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-45.243678696150965</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.015689182240671</v>
       </c>
       <c r="I20" s="10"/>
@@ -15027,27 +18490,27 @@
         <v>8.1673715199999997</v>
       </c>
       <c r="C21" s="5">
-        <f>K$4+L$4*A21</f>
+        <f t="shared" si="0"/>
         <v>14.6013564</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.4339848800000006</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.74012643762728092</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.510697378456381</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.3433258584563816</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.72969757590234419</v>
       </c>
       <c r="I21" s="10"/>
@@ -15061,27 +18524,27 @@
         <v>96.837374499999996</v>
       </c>
       <c r="C22" s="5">
-        <f>K$4+L$4*A22</f>
+        <f t="shared" si="0"/>
         <v>63.396036799999997</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.441337699999998</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.640872461760679</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63.716198227188471</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.121176272811525</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44.213488678058276</v>
       </c>
       <c r="I22" s="10"/>
@@ -15095,27 +18558,27 @@
         <v>29.670939600000001</v>
       </c>
       <c r="C23" s="5">
-        <f>K$4+L$4*A23</f>
+        <f t="shared" si="0"/>
         <v>25.2333836</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4375560000000007</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6899748198620401</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.232239545035313</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4387000549646878</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6904105155654543</v>
       </c>
       <c r="I23" s="10"/>
@@ -15129,27 +18592,27 @@
         <v>-42.007531</v>
       </c>
       <c r="C24" s="5">
-        <f>K$4+L$4*A24</f>
+        <f t="shared" si="0"/>
         <v>-14.222028000000002</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-27.785502999999999</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.8255307915021</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-14.555361747889107</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-27.452169252110892</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.623680307134226</v>
       </c>
       <c r="I24" s="10"/>
@@ -15163,27 +18626,27 @@
         <v>34.777051700000001</v>
       </c>
       <c r="C25" s="5">
-        <f>K$4+L$4*A25</f>
+        <f t="shared" si="0"/>
         <v>30.054850800000001</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7222009000000007</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3675758624281436</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.094300459399541</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6827512406004601</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3477969365939284</v>
       </c>
       <c r="I25" s="10"/>
@@ -15197,27 +18660,27 @@
         <v>-145.41972000000001</v>
       </c>
       <c r="C26" s="5">
-        <f>K$4+L$4*A26</f>
+        <f t="shared" si="0"/>
         <v>-71.318560000000005</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-74.101160000000007</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150.64499063824002</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-72.132610553594148</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-73.287109446405864</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>148.99005516860308</v>
       </c>
       <c r="I26" s="10"/>
@@ -15231,27 +18694,27 @@
         <v>-18.087733</v>
       </c>
       <c r="C27" s="5">
-        <f>K$4+L$4*A27</f>
+        <f t="shared" si="0"/>
         <v>2.4362320000000004</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-20.523965</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8809627425029998</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.243150299920103</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-20.330883299920103</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8444521128917519</v>
       </c>
       <c r="I27" s="10"/>
@@ -15265,27 +18728,27 @@
         <v>127.391198</v>
       </c>
       <c r="C28" s="5">
-        <f>K$4+L$4*A28</f>
+        <f t="shared" si="0"/>
         <v>83.076892799999996</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.314305200000007</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.958793265172076</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83.56275462786887</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43.828443372131133</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.071161447402432</v>
       </c>
       <c r="I28" s="10"/>
@@ -15299,27 +18762,27 @@
         <v>-41.385581000000002</v>
       </c>
       <c r="C29" s="5">
-        <f>K$4+L$4*A29</f>
+        <f t="shared" si="0"/>
         <v>-16.003492000000001</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-25.382089000000001</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.5005737063697</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-16.351824551731667</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-25.033756448268335</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.274127138312352</v>
       </c>
       <c r="I29" s="10"/>
@@ -15333,27 +18796,27 @@
         <v>71.018280000000004</v>
       </c>
       <c r="C30" s="5">
-        <f>K$4+L$4*A30</f>
+        <f t="shared" si="0"/>
         <v>50.395465599999994</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.62281440000001</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.826704741759624</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.606170413263037</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.412109586736968</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.613916765861582</v>
       </c>
       <c r="I30" s="10"/>
@@ -15367,27 +18830,27 @@
         <v>-35.661014999999999</v>
       </c>
       <c r="C31" s="5">
-        <f>K$4+L$4*A31</f>
+        <f t="shared" si="0"/>
         <v>-12.868843999999999</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-22.792171</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.0307650755081</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-13.190784791658222</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-22.470230208341775</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.846704731966389</v>
       </c>
       <c r="I31" s="10"/>
@@ -15401,27 +18864,27 @@
         <v>-43.996808999999999</v>
       </c>
       <c r="C32" s="5">
-        <f>K$4+L$4*A32</f>
+        <f t="shared" si="0"/>
         <v>-12.763287999999999</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-31.233521</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.774440844426199</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-13.084340076680876</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-30.912468923319125</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.591735822314078</v>
       </c>
       <c r="I32" s="10"/>
@@ -15435,27 +18898,27 @@
         <v>168.82271399999999</v>
       </c>
       <c r="C33" s="5">
-        <f>K$4+L$4*A33</f>
+        <f t="shared" si="0"/>
         <v>107.1869564</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.635757599999991</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>149.75479216380418</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107.87580976436249</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60.946904235637504</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>148.08110311659695</v>
       </c>
       <c r="I33" s="10"/>
@@ -15469,27 +18932,27 @@
         <v>32.6311909</v>
       </c>
       <c r="C34" s="5">
-        <f>K$4+L$4*A34</f>
+        <f t="shared" ref="C34:C51" si="6">K$4+L$4*A34</f>
         <v>27.610510399999999</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.020680500000001</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2104186540081803</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.6293802541472</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0018106458527996</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2021109599405357</v>
       </c>
       <c r="I34" s="10"/>
@@ -15503,27 +18966,27 @@
         <v>6.44692183</v>
       </c>
       <c r="C35" s="5">
-        <f>K$4+L$4*A35</f>
+        <f t="shared" si="6"/>
         <v>13.442888399999999</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.9959665699999993</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.60215830376601964</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.342475808196255</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.8955539781962552</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.59351557007764344</v>
       </c>
       <c r="I35" s="10"/>
@@ -15537,27 +19000,27 @@
         <v>27.549579699999999</v>
       </c>
       <c r="C36" s="5">
-        <f>K$4+L$4*A36</f>
+        <f t="shared" si="6"/>
         <v>25.783242000000001</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7663376999999976</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69696338432058402</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.786727406131799</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7628522938681996</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6955881091094227</v>
       </c>
       <c r="I36" s="10"/>
@@ -15571,27 +19034,27 @@
         <v>29.690543999999999</v>
       </c>
       <c r="C37" s="5">
-        <f>K$4+L$4*A37</f>
+        <f t="shared" si="6"/>
         <v>24.9645516</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7259923999999991</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7680589282751957</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.96114414906739</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7293998509326087</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7693337026578333</v>
       </c>
       <c r="I37" s="10"/>
@@ -15605,27 +19068,27 @@
         <v>-105.89570999999999</v>
       </c>
       <c r="C38" s="5">
-        <f>K$4+L$4*A38</f>
+        <f t="shared" si="6"/>
         <v>-51.732416000000001</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-54.163293999999993</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83.590774928457591</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-52.381563568247174</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-53.51414643175282</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82.588938735247012</v>
       </c>
       <c r="I38" s="10"/>
@@ -15639,27 +19102,27 @@
         <v>-47.546590999999999</v>
       </c>
       <c r="C39" s="5">
-        <f>K$4+L$4*A39</f>
+        <f t="shared" si="6"/>
         <v>-16.342515999999996</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-31.204075000000003</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.549846123817499</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-16.693702920090452</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-30.852888079909548</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.31856744728066</v>
       </c>
       <c r="I39" s="10"/>
@@ -15673,27 +19136,27 @@
         <v>-19.639564</v>
       </c>
       <c r="C40" s="5">
-        <f>K$4+L$4*A40</f>
+        <f t="shared" si="6"/>
         <v>-1.3105919999999998</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-18.328972</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1827881017855999</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.5352195961567201</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-18.104344403843278</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1192713244838632</v>
       </c>
       <c r="I40" s="10"/>
@@ -15707,27 +19170,27 @@
         <v>-63.159528000000002</v>
       </c>
       <c r="C41" s="5">
-        <f>K$4+L$4*A41</f>
+        <f t="shared" si="6"/>
         <v>-24.201024000000004</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-38.958503999999998</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.310518257702398</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-24.618374603435839</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-38.541153396564162</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.953672807589314</v>
       </c>
       <c r="I41" s="10"/>
@@ -15741,27 +19204,27 @@
         <v>-95.754503</v>
       </c>
       <c r="C42" s="5">
-        <f>K$4+L$4*A42</f>
+        <f t="shared" si="6"/>
         <v>-45.753272000000003</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-50.001230999999997</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.693305806945801</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-46.352078945028055</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-49.402424054971945</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.85866964490485</v>
       </c>
       <c r="I42" s="10"/>
@@ -15775,27 +19238,27 @@
         <v>66.078068599999995</v>
       </c>
       <c r="C43" s="5">
-        <f>K$4+L$4*A43</f>
+        <f t="shared" si="6"/>
         <v>47.162788800000001</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.915279799999993</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.573613707507651</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.346276512491094</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.7317920875089</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.403140829840108</v>
       </c>
       <c r="I43" s="10"/>
@@ -15809,27 +19272,27 @@
         <v>76.1064255</v>
       </c>
       <c r="C44" s="5">
-        <f>K$4+L$4*A44</f>
+        <f t="shared" si="6"/>
         <v>55.382773600000007</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.723651899999993</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.51242005857274</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.635468402616993</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.470957097383007</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.225720283146156</v>
       </c>
       <c r="I44" s="10"/>
@@ -15843,27 +19306,27 @@
         <v>-132.1301</v>
       </c>
       <c r="C45" s="5">
-        <f>K$4+L$4*A45</f>
+        <f t="shared" si="6"/>
         <v>-65.962367999999998</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-66.167732000000001</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125.6564401977344</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-66.731322793505186</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-65.398777206494813</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>124.19614952274428</v>
       </c>
       <c r="I45" s="10"/>
@@ -15877,27 +19340,27 @@
         <v>59.155936599999997</v>
       </c>
       <c r="C46" s="5">
-        <f>K$4+L$4*A46</f>
+        <f t="shared" si="6"/>
         <v>41.373788000000005</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.782148599999992</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.947334009022414</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.508535975149428</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.647400624850569</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.841645148878232</v>
       </c>
       <c r="I46" s="10"/>
@@ -15911,27 +19374,27 @@
         <v>48.505242099999997</v>
       </c>
       <c r="C47" s="5">
-        <f>K$4+L$4*A47</f>
+        <f t="shared" si="6"/>
         <v>38.548747599999999</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.956494499999998</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1061362115322035</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.659710515890914</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8455315841090822</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0269399045639585</v>
       </c>
       <c r="I47" s="10"/>
@@ -15945,27 +19408,27 @@
         <v>-150.61857000000001</v>
       </c>
       <c r="C48" s="5">
-        <f>K$4+L$4*A48</f>
+        <f t="shared" si="6"/>
         <v>-78.393859999999989</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-72.224710000000016</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>159.60552260701502</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-79.267480119314953</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-71.351089880685052</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>157.67495624401727</v>
       </c>
       <c r="I48" s="10"/>
@@ -15979,27 +19442,27 @@
         <v>63.104398799999998</v>
       </c>
       <c r="C49" s="5">
-        <f>K$4+L$4*A49</f>
+        <f t="shared" si="6"/>
         <v>45.3672276</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.737171199999999</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.682864270264126</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.535597819111423</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.568800980888575</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.533994573754738</v>
       </c>
       <c r="I49" s="10"/>
@@ -16013,27 +19476,27 @@
         <v>11.190668499999999</v>
       </c>
       <c r="C50" s="5">
-        <f>K$4+L$4*A50</f>
+        <f t="shared" si="6"/>
         <v>20.285171599999998</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.094503099999999</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.338463125005799</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.242366719355196</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9.0516982193551971</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.3274567364370662</v>
       </c>
       <c r="I50" s="10"/>
@@ -16047,27 +19510,27 @@
         <v>-77.997404000000003</v>
       </c>
       <c r="C51" s="5">
-        <f>K$4+L$4*A51</f>
+        <f t="shared" si="6"/>
         <v>-36.178987999999997</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-41.818416000000006</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.278303266075206</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-36.697185509390302</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-41.300218490609701</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.680057351881089</v>
       </c>
       <c r="I51" s="10"/>
@@ -16083,8 +19546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7E5049-30EC-4A40-AFBE-945907B1D82E}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="200" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="G1" zoomScale="200" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16113,13 +19576,13 @@
         <v>1</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>34</v>
@@ -16504,4 +19967,2463 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC746A95-0158-0F4D-B669-7A3265AEC378}">
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="6">
+        <f>A4^2</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:C7" si="0">A5^2</f>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64000000000000012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB8DCFF-79FC-B342-8B0B-C0C632378951}">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14.5" customWidth="1"/>
+    <col min="6" max="9" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>-0.16562750000000001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-10.823492</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-0.16562750000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2^2</f>
+        <v>2.7432468756250005E-2</v>
+      </c>
+      <c r="H2" s="32">
+        <v>-10.823492</v>
+      </c>
+      <c r="I2" s="34">
+        <f>K$5+L$5*F2+M$5*H2</f>
+        <v>-31.801730999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>-0.24069299999999999</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-14.141714</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-0.24069299999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G51" si="0">F3^2</f>
+        <v>5.7933120248999992E-2</v>
+      </c>
+      <c r="H3" s="32">
+        <v>-14.141714</v>
+      </c>
+      <c r="I3" s="34">
+        <f t="shared" ref="I3:I51" si="1">K$5+L$5*F3+M$5*H3</f>
+        <v>-41.906528000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>-0.48590919999999999</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-32.409433999999997</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-0.48590919999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23610775064463999</v>
+      </c>
+      <c r="H4" s="32">
+        <v>-32.409433999999997</v>
+      </c>
+      <c r="I4" s="34">
+        <f t="shared" si="1"/>
+        <v>-97.200120399999989</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>-0.1076836</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-9.0656832999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-0.1076836</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1595757708960002E-2</v>
+      </c>
+      <c r="H5" s="32">
+        <v>-9.0656832999999999</v>
+      </c>
+      <c r="I5" s="34">
+        <f t="shared" si="1"/>
+        <v>-26.412417099999999</v>
+      </c>
+      <c r="K5" s="36">
+        <v>1</v>
+      </c>
+      <c r="L5" s="36">
+        <v>2</v>
+      </c>
+      <c r="M5" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>-1.6807323999999999</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-116.62475999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1.6807323999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8248614004097599</v>
+      </c>
+      <c r="H6" s="32">
+        <v>-116.62475999999999</v>
+      </c>
+      <c r="I6" s="34">
+        <f t="shared" si="1"/>
+        <v>-352.23574480000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>-1.0922114999999999</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-78.386308999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1.0922114999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1929259607322498</v>
+      </c>
+      <c r="H7" s="32">
+        <v>-78.386308999999997</v>
+      </c>
+      <c r="I7" s="34">
+        <f t="shared" si="1"/>
+        <v>-236.34335000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>0.57477922999999997</v>
+      </c>
+      <c r="B8" s="2">
+        <v>39.086097000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.57477922999999997</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33037116323939286</v>
+      </c>
+      <c r="H8" s="32">
+        <v>39.086097000000002</v>
+      </c>
+      <c r="I8" s="34">
+        <f t="shared" si="1"/>
+        <v>119.40784946000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>-0.55071340000000002</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-41.595868000000003</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-0.55071340000000002</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30328524893956005</v>
+      </c>
+      <c r="H9" s="32">
+        <v>-41.595868000000003</v>
+      </c>
+      <c r="I9" s="34">
+        <f t="shared" si="1"/>
+        <v>-124.88903080000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0.40179025000000002</v>
+      </c>
+      <c r="B10" s="2">
+        <v>23.983129999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.40179025000000002</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16143540499506251</v>
+      </c>
+      <c r="H10" s="32">
+        <v>23.983129999999999</v>
+      </c>
+      <c r="I10" s="34">
+        <f t="shared" si="1"/>
+        <v>73.752970499999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>-0.50024550000000001</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-33.641916999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-0.50024550000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25024556027025002</v>
+      </c>
+      <c r="H11" s="32">
+        <v>-33.641916999999999</v>
+      </c>
+      <c r="I11" s="34">
+        <f t="shared" si="1"/>
+        <v>-100.92624199999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>0.62950771000000005</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43.808776299999998</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.62950771000000005</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39627995694944418</v>
+      </c>
+      <c r="H12" s="32">
+        <v>43.808776299999998</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" si="1"/>
+        <v>133.68534431999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1.8261192500000001</v>
+      </c>
+      <c r="B13" s="2">
+        <v>131.71287699999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.8261192500000001</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3347115152205626</v>
+      </c>
+      <c r="H13" s="32">
+        <v>131.71287699999999</v>
+      </c>
+      <c r="I13" s="34">
+        <f t="shared" si="1"/>
+        <v>399.79086949999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>0.30039895</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16.181805300000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.30039895</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0239529161102505E-2</v>
+      </c>
+      <c r="H14" s="32">
+        <v>16.181805300000001</v>
+      </c>
+      <c r="I14" s="34">
+        <f t="shared" si="1"/>
+        <v>50.146213799999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>-1.0550704</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-72.612886000000003</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-1.0550704</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1131735489561598</v>
+      </c>
+      <c r="H15" s="32">
+        <v>-72.612886000000003</v>
+      </c>
+      <c r="I15" s="34">
+        <f t="shared" si="1"/>
+        <v>-218.94879880000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>-1.3722749000000001</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-91.941316999999998</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-1.3722749000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8831384011700103</v>
+      </c>
+      <c r="H16" s="32">
+        <v>-91.941316999999998</v>
+      </c>
+      <c r="I16" s="34">
+        <f t="shared" si="1"/>
+        <v>-277.56850079999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>-0.185638</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-4.3803729999999996</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-0.185638</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4461467044000001E-2</v>
+      </c>
+      <c r="H17" s="32">
+        <v>-4.3803729999999996</v>
+      </c>
+      <c r="I17" s="34">
+        <f t="shared" si="1"/>
+        <v>-12.512395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1.3532987000000001</v>
+      </c>
+      <c r="B18" s="2">
+        <v>97.5186128</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.3532987000000001</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8314173714216901</v>
+      </c>
+      <c r="H18" s="32">
+        <v>97.5186128</v>
+      </c>
+      <c r="I18" s="34">
+        <f t="shared" si="1"/>
+        <v>296.26243579999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>-1.0717814999999999</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-73.404396000000006</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-1.0717814999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1487155837422498</v>
+      </c>
+      <c r="H19" s="32">
+        <v>-73.404396000000006</v>
+      </c>
+      <c r="I19" s="34">
+        <f t="shared" si="1"/>
+        <v>-221.356751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>-1.1496786000000001</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-81.747405000000001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-1.1496786000000001</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3217608832979602</v>
+      </c>
+      <c r="H20" s="32">
+        <v>-81.747405000000001</v>
+      </c>
+      <c r="I20" s="34">
+        <f t="shared" si="1"/>
+        <v>-246.54157219999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>0.11503391</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8.1673715199999997</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.11503391</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.32328004498881E-2</v>
+      </c>
+      <c r="H21" s="32">
+        <v>8.1673715199999997</v>
+      </c>
+      <c r="I21" s="34">
+        <f t="shared" si="1"/>
+        <v>25.732182379999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1.3349009199999999</v>
+      </c>
+      <c r="B22" s="2">
+        <v>96.837374499999996</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.3349009199999999</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7819604662168462</v>
+      </c>
+      <c r="H22" s="32">
+        <v>96.837374499999996</v>
+      </c>
+      <c r="I22" s="34">
+        <f t="shared" si="1"/>
+        <v>294.18192533999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0.38083458999999997</v>
+      </c>
+      <c r="B23" s="2">
+        <v>29.670939600000001</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.38083458999999997</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14503498494046807</v>
+      </c>
+      <c r="H23" s="32">
+        <v>29.670939600000001</v>
+      </c>
+      <c r="I23" s="34">
+        <f t="shared" si="1"/>
+        <v>90.774487980000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>-0.6055507</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-42.007531</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-0.6055507</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36669165027049</v>
+      </c>
+      <c r="H24" s="32">
+        <v>-42.007531</v>
+      </c>
+      <c r="I24" s="34">
+        <f t="shared" si="1"/>
+        <v>-126.2336944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>0.50137127000000004</v>
+      </c>
+      <c r="B25" s="2">
+        <v>34.777051700000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.50137127000000004</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25137315038141295</v>
+      </c>
+      <c r="H25" s="32">
+        <v>34.777051700000001</v>
+      </c>
+      <c r="I25" s="34">
+        <f t="shared" si="1"/>
+        <v>106.33389764</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>-2.0329640000000002</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-145.41972000000001</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-2.0329640000000002</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1329426252960006</v>
+      </c>
+      <c r="H26" s="32">
+        <v>-145.41972000000001</v>
+      </c>
+      <c r="I26" s="34">
+        <f t="shared" si="1"/>
+        <v>-439.32508800000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>-0.18909419999999999</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-18.087733</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-0.18909419999999999</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5756616473639993E-2</v>
+      </c>
+      <c r="H27" s="32">
+        <v>-18.087733</v>
+      </c>
+      <c r="I27" s="34">
+        <f t="shared" si="1"/>
+        <v>-53.641387399999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>1.82692232</v>
+      </c>
+      <c r="B28" s="2">
+        <v>127.391198</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.82692232</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3376451633141824</v>
+      </c>
+      <c r="H28" s="32">
+        <v>127.391198</v>
+      </c>
+      <c r="I28" s="34">
+        <f t="shared" si="1"/>
+        <v>386.82743863999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>-0.65008730000000003</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-41.385581000000002</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-0.65008730000000003</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42261349762129002</v>
+      </c>
+      <c r="H29" s="32">
+        <v>-41.385581000000002</v>
+      </c>
+      <c r="I29" s="34">
+        <f t="shared" si="1"/>
+        <v>-124.45691760000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>1.0098866399999999</v>
+      </c>
+      <c r="B30" s="2">
+        <v>71.018280000000004</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.0098866399999999</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0198710256504895</v>
+      </c>
+      <c r="H30" s="32">
+        <v>71.018280000000004</v>
+      </c>
+      <c r="I30" s="34">
+        <f t="shared" si="1"/>
+        <v>216.07461328000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>-0.57172109999999998</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-35.661014999999999</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-0.57172109999999998</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32686501618520997</v>
+      </c>
+      <c r="H31" s="32">
+        <v>-35.661014999999999</v>
+      </c>
+      <c r="I31" s="34">
+        <f t="shared" si="1"/>
+        <v>-107.1264872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>-0.56908219999999998</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-43.996808999999999</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-0.56908219999999998</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32385455035683997</v>
+      </c>
+      <c r="H32" s="32">
+        <v>-43.996808999999999</v>
+      </c>
+      <c r="I32" s="34">
+        <f t="shared" si="1"/>
+        <v>-132.1285914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>2.42967391</v>
+      </c>
+      <c r="B33" s="2">
+        <v>168.82271399999999</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2.42967391</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9033153089346877</v>
+      </c>
+      <c r="H33" s="32">
+        <v>168.82271399999999</v>
+      </c>
+      <c r="I33" s="34">
+        <f t="shared" si="1"/>
+        <v>512.32748981999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>0.44026275999999998</v>
+      </c>
+      <c r="B34" s="2">
+        <v>32.6311909</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.44026275999999998</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19383129784281758</v>
+      </c>
+      <c r="H34" s="32">
+        <v>32.6311909</v>
+      </c>
+      <c r="I34" s="34">
+        <f t="shared" si="1"/>
+        <v>99.774098219999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>8.6072209999999996E-2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6.44692183</v>
+      </c>
+      <c r="F35" s="2">
+        <v>8.6072209999999996E-2</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>7.4084253342840993E-3</v>
+      </c>
+      <c r="H35" s="32">
+        <v>6.44692183</v>
+      </c>
+      <c r="I35" s="34">
+        <f t="shared" si="1"/>
+        <v>20.512909909999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>0.39458104999999999</v>
+      </c>
+      <c r="B36" s="2">
+        <v>27.549579699999999</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.39458104999999999</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1556942050191025</v>
+      </c>
+      <c r="H36" s="32">
+        <v>27.549579699999999</v>
+      </c>
+      <c r="I36" s="34">
+        <f t="shared" si="1"/>
+        <v>84.437901199999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>0.37411379</v>
+      </c>
+      <c r="B37" s="2">
+        <v>29.690543999999999</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.37411379</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13996112786816411</v>
+      </c>
+      <c r="H37" s="32">
+        <v>29.690543999999999</v>
+      </c>
+      <c r="I37" s="34">
+        <f t="shared" si="1"/>
+        <v>90.819859579999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>-1.5433104</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-105.89570999999999</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-1.5433104</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="0"/>
+        <v>2.38180699074816</v>
+      </c>
+      <c r="H38" s="32">
+        <v>-105.89570999999999</v>
+      </c>
+      <c r="I38" s="34">
+        <f t="shared" si="1"/>
+        <v>-319.77375079999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>-0.65856289999999995</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-47.546590999999999</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-0.65856289999999995</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43370509325640993</v>
+      </c>
+      <c r="H39" s="32">
+        <v>-47.546590999999999</v>
+      </c>
+      <c r="I39" s="34">
+        <f t="shared" si="1"/>
+        <v>-142.9568988</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>-0.28276479999999998</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-19.639564</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-0.28276479999999998</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9955932119039994E-2</v>
+      </c>
+      <c r="H40" s="32">
+        <v>-19.639564</v>
+      </c>
+      <c r="I40" s="34">
+        <f t="shared" si="1"/>
+        <v>-58.484221599999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>-0.85502560000000005</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-63.159528000000002</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-0.85502560000000005</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73106877665536008</v>
+      </c>
+      <c r="H41" s="32">
+        <v>-63.159528000000002</v>
+      </c>
+      <c r="I41" s="34">
+        <f t="shared" si="1"/>
+        <v>-190.18863520000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>-1.3938318000000001</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-95.754503</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-1.3938318000000001</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9427670866912401</v>
+      </c>
+      <c r="H42" s="32">
+        <v>-95.754503</v>
+      </c>
+      <c r="I42" s="34">
+        <f t="shared" si="1"/>
+        <v>-289.05117259999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>0.92906971999999999</v>
+      </c>
+      <c r="B43" s="2">
+        <v>66.078068599999995</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.92906971999999999</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86317054462087839</v>
+      </c>
+      <c r="H43" s="32">
+        <v>66.078068599999995</v>
+      </c>
+      <c r="I43" s="34">
+        <f t="shared" si="1"/>
+        <v>201.09234523999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>1.1345693400000001</v>
+      </c>
+      <c r="B44" s="2">
+        <v>76.1064255</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.1345693400000001</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2872475872680358</v>
+      </c>
+      <c r="H44" s="32">
+        <v>76.1064255</v>
+      </c>
+      <c r="I44" s="34">
+        <f t="shared" si="1"/>
+        <v>231.58841518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>-1.8990591999999999</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-132.1301</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-1.8990591999999999</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6064258451046398</v>
+      </c>
+      <c r="H45" s="32">
+        <v>-132.1301</v>
+      </c>
+      <c r="I45" s="34">
+        <f t="shared" si="1"/>
+        <v>-399.18841840000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>0.78434470000000001</v>
+      </c>
+      <c r="B46" s="2">
+        <v>59.155936599999997</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.78434470000000001</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.61519660841808999</v>
+      </c>
+      <c r="H46" s="32">
+        <v>59.155936599999997</v>
+      </c>
+      <c r="I46" s="34">
+        <f t="shared" si="1"/>
+        <v>180.03649920000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>0.71371868999999999</v>
+      </c>
+      <c r="B47" s="2">
+        <v>48.505242099999997</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.71371868999999999</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.50939436845531605</v>
+      </c>
+      <c r="H47" s="32">
+        <v>48.505242099999997</v>
+      </c>
+      <c r="I47" s="34">
+        <f t="shared" si="1"/>
+        <v>147.94316367999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>-2.2098464999999998</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-150.61857000000001</v>
+      </c>
+      <c r="F48" s="2">
+        <v>-2.2098464999999998</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8834215535622496</v>
+      </c>
+      <c r="H48" s="32">
+        <v>-150.61857000000001</v>
+      </c>
+      <c r="I48" s="34">
+        <f t="shared" si="1"/>
+        <v>-455.27540300000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>0.88418068999999999</v>
+      </c>
+      <c r="B49" s="2">
+        <v>63.104398799999998</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.88418068999999999</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78177549256887613</v>
+      </c>
+      <c r="H49" s="32">
+        <v>63.104398799999998</v>
+      </c>
+      <c r="I49" s="34">
+        <f t="shared" si="1"/>
+        <v>192.08155777999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>0.25712929000000001</v>
+      </c>
+      <c r="B50" s="2">
+        <v>11.190668499999999</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.25712929000000001</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="0"/>
+        <v>6.61154717759041E-2</v>
+      </c>
+      <c r="H50" s="32">
+        <v>11.190668499999999</v>
+      </c>
+      <c r="I50" s="34">
+        <f t="shared" si="1"/>
+        <v>35.086264079999992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>-1.1544747</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-77.997404000000003</v>
+      </c>
+      <c r="F51" s="2">
+        <v>-1.1544747</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="0"/>
+        <v>1.33281183294009</v>
+      </c>
+      <c r="H51" s="32">
+        <v>-77.997404000000003</v>
+      </c>
+      <c r="I51" s="34">
+        <f t="shared" si="1"/>
+        <v>-235.30116139999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FCAAF5-2EAF-994E-B477-41FFEFAE18B7}">
+  <dimension ref="A3:Q49"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" style="46"/>
+    <col min="8" max="8" width="10.83203125" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="37">
+        <v>-0.16562750000000001</v>
+      </c>
+      <c r="B4" s="37">
+        <v>-10.823492</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="38">
+        <v>-0.16562750000000001</v>
+      </c>
+      <c r="F4" s="38">
+        <v>-10.823492</v>
+      </c>
+      <c r="I4" s="38">
+        <v>-0.16562750000000001</v>
+      </c>
+      <c r="J4" s="38">
+        <v>-10.823492</v>
+      </c>
+      <c r="M4" s="38">
+        <v>-0.16562750000000001</v>
+      </c>
+      <c r="N4" s="38">
+        <v>-10.823492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="37">
+        <v>-0.24069299999999999</v>
+      </c>
+      <c r="B5" s="37">
+        <v>-14.141714</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="38">
+        <v>-0.24069299999999999</v>
+      </c>
+      <c r="F5" s="38">
+        <v>-14.141714</v>
+      </c>
+      <c r="I5" s="38">
+        <v>-0.24069299999999999</v>
+      </c>
+      <c r="J5" s="38">
+        <v>-14.141714</v>
+      </c>
+      <c r="M5" s="38">
+        <v>-0.24069299999999999</v>
+      </c>
+      <c r="N5" s="38">
+        <v>-14.141714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="37">
+        <v>-0.48590919999999999</v>
+      </c>
+      <c r="B6" s="37">
+        <v>-32.409433999999997</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="38">
+        <v>-0.48590919999999999</v>
+      </c>
+      <c r="F6" s="38">
+        <v>-32.409433999999997</v>
+      </c>
+      <c r="I6" s="38">
+        <v>-0.48590919999999999</v>
+      </c>
+      <c r="J6" s="38">
+        <v>-32.409433999999997</v>
+      </c>
+      <c r="M6" s="38">
+        <v>-0.48590919999999999</v>
+      </c>
+      <c r="N6" s="38">
+        <v>-32.409433999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="37">
+        <v>-0.1076836</v>
+      </c>
+      <c r="B7" s="37">
+        <v>-9.0656832999999999</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="38">
+        <v>-0.1076836</v>
+      </c>
+      <c r="F7" s="38">
+        <v>-9.0656832999999999</v>
+      </c>
+      <c r="I7" s="38">
+        <v>-0.1076836</v>
+      </c>
+      <c r="J7" s="38">
+        <v>-9.0656832999999999</v>
+      </c>
+      <c r="M7" s="38">
+        <v>-0.1076836</v>
+      </c>
+      <c r="N7" s="38">
+        <v>-9.0656832999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="37">
+        <v>-1.6807323999999999</v>
+      </c>
+      <c r="B8" s="37">
+        <v>-116.62475999999999</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="38">
+        <v>-1.6807323999999999</v>
+      </c>
+      <c r="F8" s="38">
+        <v>-116.62475999999999</v>
+      </c>
+      <c r="I8" s="38">
+        <v>-1.6807323999999999</v>
+      </c>
+      <c r="J8" s="38">
+        <v>-116.62475999999999</v>
+      </c>
+      <c r="M8" s="38">
+        <v>-1.6807323999999999</v>
+      </c>
+      <c r="N8" s="38">
+        <v>-116.62475999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="38">
+        <v>-1.0922114999999999</v>
+      </c>
+      <c r="B9" s="38">
+        <v>-78.386308999999997</v>
+      </c>
+      <c r="E9" s="37">
+        <v>-1.0922114999999999</v>
+      </c>
+      <c r="F9" s="37">
+        <v>-78.386308999999997</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="38">
+        <v>-1.0922114999999999</v>
+      </c>
+      <c r="J9" s="38">
+        <v>-78.386308999999997</v>
+      </c>
+      <c r="M9" s="38">
+        <v>-1.0922114999999999</v>
+      </c>
+      <c r="N9" s="38">
+        <v>-78.386308999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0.57477922999999997</v>
+      </c>
+      <c r="B10" s="2">
+        <v>39.086097000000002</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0.57477922999999997</v>
+      </c>
+      <c r="F10" s="37">
+        <v>39.086097000000002</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="38">
+        <v>0.57477922999999997</v>
+      </c>
+      <c r="J10" s="38">
+        <v>39.086097000000002</v>
+      </c>
+      <c r="M10" s="38">
+        <v>0.57477922999999997</v>
+      </c>
+      <c r="N10" s="38">
+        <v>39.086097000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>-0.55071340000000002</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-41.595868000000003</v>
+      </c>
+      <c r="E11" s="37">
+        <v>-0.55071340000000002</v>
+      </c>
+      <c r="F11" s="37">
+        <v>-41.595868000000003</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="38">
+        <v>-0.55071340000000002</v>
+      </c>
+      <c r="J11" s="38">
+        <v>-41.595868000000003</v>
+      </c>
+      <c r="M11" s="38">
+        <v>-0.55071340000000002</v>
+      </c>
+      <c r="N11" s="38">
+        <v>-41.595868000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>0.40179025000000002</v>
+      </c>
+      <c r="B12" s="2">
+        <v>23.983129999999999</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.40179025000000002</v>
+      </c>
+      <c r="F12" s="37">
+        <v>23.983129999999999</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="38">
+        <v>0.40179025000000002</v>
+      </c>
+      <c r="J12" s="38">
+        <v>23.983129999999999</v>
+      </c>
+      <c r="M12" s="38">
+        <v>0.40179025000000002</v>
+      </c>
+      <c r="N12" s="38">
+        <v>23.983129999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>-0.50024550000000001</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-33.641916999999999</v>
+      </c>
+      <c r="E13" s="37">
+        <v>-0.50024550000000001</v>
+      </c>
+      <c r="F13" s="37">
+        <v>-33.641916999999999</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="38">
+        <v>-0.50024550000000001</v>
+      </c>
+      <c r="J13" s="38">
+        <v>-33.641916999999999</v>
+      </c>
+      <c r="M13" s="38">
+        <v>-0.50024550000000001</v>
+      </c>
+      <c r="N13" s="38">
+        <v>-33.641916999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>0.62950771000000005</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43.808776299999998</v>
+      </c>
+      <c r="E14" s="38">
+        <v>0.62950771000000005</v>
+      </c>
+      <c r="F14" s="38">
+        <v>43.808776299999998</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0.62950771000000005</v>
+      </c>
+      <c r="J14" s="40">
+        <v>43.808776299999998</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="48"/>
+      <c r="M14" s="41">
+        <v>0.62950771000000005</v>
+      </c>
+      <c r="N14" s="38">
+        <v>43.808776299999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1.8261192500000001</v>
+      </c>
+      <c r="B15" s="2">
+        <v>131.71287699999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.8261192500000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>131.71287699999999</v>
+      </c>
+      <c r="I15" s="37">
+        <v>1.8261192500000001</v>
+      </c>
+      <c r="J15" s="40">
+        <v>131.71287699999999</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="41">
+        <v>1.8261192500000001</v>
+      </c>
+      <c r="N15" s="38">
+        <v>131.71287699999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>0.30039895</v>
+      </c>
+      <c r="B16" s="2">
+        <v>16.181805300000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.30039895</v>
+      </c>
+      <c r="F16" s="2">
+        <v>16.181805300000001</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0.30039895</v>
+      </c>
+      <c r="J16" s="40">
+        <v>16.181805300000001</v>
+      </c>
+      <c r="K16" s="43"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="41">
+        <v>0.30039895</v>
+      </c>
+      <c r="N16" s="38">
+        <v>16.181805300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>-1.0550704</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-72.612886000000003</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-1.0550704</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-72.612886000000003</v>
+      </c>
+      <c r="I17" s="37">
+        <v>-1.0550704</v>
+      </c>
+      <c r="J17" s="40">
+        <v>-72.612886000000003</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="41">
+        <v>-1.0550704</v>
+      </c>
+      <c r="N17" s="38">
+        <v>-72.612886000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>-1.3722749000000001</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-91.941316999999998</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-1.3722749000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-91.941316999999998</v>
+      </c>
+      <c r="I18" s="37">
+        <v>-1.3722749000000001</v>
+      </c>
+      <c r="J18" s="40">
+        <v>-91.941316999999998</v>
+      </c>
+      <c r="K18" s="44"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="41">
+        <v>-1.3722749000000001</v>
+      </c>
+      <c r="N18" s="38">
+        <v>-91.941316999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>-0.185638</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-4.3803729999999996</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-0.185638</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-4.3803729999999996</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-0.185638</v>
+      </c>
+      <c r="J19" s="2">
+        <v>-4.3803729999999996</v>
+      </c>
+      <c r="M19" s="37">
+        <v>-0.185638</v>
+      </c>
+      <c r="N19" s="37">
+        <v>-4.3803729999999996</v>
+      </c>
+      <c r="O19" s="45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>1.3532987000000001</v>
+      </c>
+      <c r="B20" s="2">
+        <v>97.5186128</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.3532987000000001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>97.5186128</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.3532987000000001</v>
+      </c>
+      <c r="J20" s="2">
+        <v>97.5186128</v>
+      </c>
+      <c r="M20" s="37">
+        <v>1.3532987000000001</v>
+      </c>
+      <c r="N20" s="37">
+        <v>97.5186128</v>
+      </c>
+      <c r="O20" s="45"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>-1.0717814999999999</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-73.404396000000006</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-1.0717814999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-73.404396000000006</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-1.0717814999999999</v>
+      </c>
+      <c r="J21" s="2">
+        <v>-73.404396000000006</v>
+      </c>
+      <c r="M21" s="37">
+        <v>-1.0717814999999999</v>
+      </c>
+      <c r="N21" s="37">
+        <v>-73.404396000000006</v>
+      </c>
+      <c r="O21" s="45"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>-1.1496786000000001</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-81.747405000000001</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-1.1496786000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-81.747405000000001</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-1.1496786000000001</v>
+      </c>
+      <c r="J22" s="2">
+        <v>-81.747405000000001</v>
+      </c>
+      <c r="M22" s="37">
+        <v>-1.1496786000000001</v>
+      </c>
+      <c r="N22" s="37">
+        <v>-81.747405000000001</v>
+      </c>
+      <c r="O22" s="45"/>
+      <c r="Q22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0.11503391</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8.1673715199999997</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.11503391</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8.1673715199999997</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.11503391</v>
+      </c>
+      <c r="J23" s="2">
+        <v>8.1673715199999997</v>
+      </c>
+      <c r="M23" s="37">
+        <v>0.11503391</v>
+      </c>
+      <c r="N23" s="37">
+        <v>8.1673715199999997</v>
+      </c>
+      <c r="O23" s="45"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="37">
+        <v>-0.16562750000000001</v>
+      </c>
+      <c r="B30" s="37">
+        <v>-10.823492</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="38">
+        <v>-0.16562750000000001</v>
+      </c>
+      <c r="F30" s="38">
+        <v>-10.823492</v>
+      </c>
+      <c r="I30" s="38">
+        <v>-0.16562750000000001</v>
+      </c>
+      <c r="J30" s="38">
+        <v>-10.823492</v>
+      </c>
+      <c r="M30" s="38">
+        <v>-0.16562750000000001</v>
+      </c>
+      <c r="N30" s="38">
+        <v>-10.823492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="37">
+        <v>-0.24069299999999999</v>
+      </c>
+      <c r="B31" s="37">
+        <v>-14.141714</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="38">
+        <v>-0.24069299999999999</v>
+      </c>
+      <c r="F31" s="38">
+        <v>-14.141714</v>
+      </c>
+      <c r="I31" s="38">
+        <v>-0.24069299999999999</v>
+      </c>
+      <c r="J31" s="38">
+        <v>-14.141714</v>
+      </c>
+      <c r="M31" s="38">
+        <v>-0.24069299999999999</v>
+      </c>
+      <c r="N31" s="38">
+        <v>-14.141714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="37">
+        <v>-0.48590919999999999</v>
+      </c>
+      <c r="B32" s="37">
+        <v>-32.409433999999997</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="38">
+        <v>-0.48590919999999999</v>
+      </c>
+      <c r="F32" s="38">
+        <v>-32.409433999999997</v>
+      </c>
+      <c r="I32" s="38">
+        <v>-0.48590919999999999</v>
+      </c>
+      <c r="J32" s="38">
+        <v>-32.409433999999997</v>
+      </c>
+      <c r="M32" s="38">
+        <v>-0.48590919999999999</v>
+      </c>
+      <c r="N32" s="38">
+        <v>-32.409433999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="37">
+        <v>-0.1076836</v>
+      </c>
+      <c r="B33" s="37">
+        <v>-9.0656832999999999</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="38">
+        <v>-0.1076836</v>
+      </c>
+      <c r="F33" s="38">
+        <v>-9.0656832999999999</v>
+      </c>
+      <c r="I33" s="38">
+        <v>-0.1076836</v>
+      </c>
+      <c r="J33" s="38">
+        <v>-9.0656832999999999</v>
+      </c>
+      <c r="M33" s="38">
+        <v>-0.1076836</v>
+      </c>
+      <c r="N33" s="38">
+        <v>-9.0656832999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="37">
+        <v>-1.6807323999999999</v>
+      </c>
+      <c r="B34" s="37">
+        <v>-116.62475999999999</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="38">
+        <v>-1.6807323999999999</v>
+      </c>
+      <c r="F34" s="38">
+        <v>-116.62475999999999</v>
+      </c>
+      <c r="I34" s="38">
+        <v>-1.6807323999999999</v>
+      </c>
+      <c r="J34" s="38">
+        <v>-116.62475999999999</v>
+      </c>
+      <c r="M34" s="38">
+        <v>-1.6807323999999999</v>
+      </c>
+      <c r="N34" s="38">
+        <v>-116.62475999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="38">
+        <v>-1.0922114999999999</v>
+      </c>
+      <c r="B35" s="38">
+        <v>-78.386308999999997</v>
+      </c>
+      <c r="E35" s="37">
+        <v>-1.0922114999999999</v>
+      </c>
+      <c r="F35" s="37">
+        <v>-78.386308999999997</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="47"/>
+      <c r="I35" s="38">
+        <v>-1.0922114999999999</v>
+      </c>
+      <c r="J35" s="38">
+        <v>-78.386308999999997</v>
+      </c>
+      <c r="M35" s="38">
+        <v>-1.0922114999999999</v>
+      </c>
+      <c r="N35" s="38">
+        <v>-78.386308999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>0.57477922999999997</v>
+      </c>
+      <c r="B36" s="2">
+        <v>39.086097000000002</v>
+      </c>
+      <c r="E36" s="37">
+        <v>0.57477922999999997</v>
+      </c>
+      <c r="F36" s="37">
+        <v>39.086097000000002</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="38">
+        <v>0.57477922999999997</v>
+      </c>
+      <c r="J36" s="38">
+        <v>39.086097000000002</v>
+      </c>
+      <c r="M36" s="38">
+        <v>0.57477922999999997</v>
+      </c>
+      <c r="N36" s="38">
+        <v>39.086097000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>-0.55071340000000002</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-41.595868000000003</v>
+      </c>
+      <c r="E37" s="37">
+        <v>-0.55071340000000002</v>
+      </c>
+      <c r="F37" s="37">
+        <v>-41.595868000000003</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="38">
+        <v>-0.55071340000000002</v>
+      </c>
+      <c r="J37" s="38">
+        <v>-41.595868000000003</v>
+      </c>
+      <c r="M37" s="38">
+        <v>-0.55071340000000002</v>
+      </c>
+      <c r="N37" s="38">
+        <v>-41.595868000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>0.40179025000000002</v>
+      </c>
+      <c r="B38" s="2">
+        <v>23.983129999999999</v>
+      </c>
+      <c r="E38" s="37">
+        <v>0.40179025000000002</v>
+      </c>
+      <c r="F38" s="37">
+        <v>23.983129999999999</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="38">
+        <v>0.40179025000000002</v>
+      </c>
+      <c r="J38" s="38">
+        <v>23.983129999999999</v>
+      </c>
+      <c r="M38" s="38">
+        <v>0.40179025000000002</v>
+      </c>
+      <c r="N38" s="38">
+        <v>23.983129999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>-0.50024550000000001</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-33.641916999999999</v>
+      </c>
+      <c r="E39" s="37">
+        <v>-0.50024550000000001</v>
+      </c>
+      <c r="F39" s="37">
+        <v>-33.641916999999999</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="38">
+        <v>-0.50024550000000001</v>
+      </c>
+      <c r="J39" s="38">
+        <v>-33.641916999999999</v>
+      </c>
+      <c r="M39" s="38">
+        <v>-0.50024550000000001</v>
+      </c>
+      <c r="N39" s="38">
+        <v>-33.641916999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>0.62950771000000005</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43.808776299999998</v>
+      </c>
+      <c r="E40" s="38">
+        <v>0.62950771000000005</v>
+      </c>
+      <c r="F40" s="38">
+        <v>43.808776299999998</v>
+      </c>
+      <c r="I40" s="37">
+        <v>0.62950771000000005</v>
+      </c>
+      <c r="J40" s="40">
+        <v>43.808776299999998</v>
+      </c>
+      <c r="K40" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" s="48"/>
+      <c r="M40" s="41">
+        <v>0.62950771000000005</v>
+      </c>
+      <c r="N40" s="38">
+        <v>43.808776299999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>1.8261192500000001</v>
+      </c>
+      <c r="B41" s="2">
+        <v>131.71287699999999</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.8261192500000001</v>
+      </c>
+      <c r="F41" s="2">
+        <v>131.71287699999999</v>
+      </c>
+      <c r="I41" s="37">
+        <v>1.8261192500000001</v>
+      </c>
+      <c r="J41" s="40">
+        <v>131.71287699999999</v>
+      </c>
+      <c r="K41" s="43"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="41">
+        <v>1.8261192500000001</v>
+      </c>
+      <c r="N41" s="38">
+        <v>131.71287699999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>0.30039895</v>
+      </c>
+      <c r="B42" s="2">
+        <v>16.181805300000001</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.30039895</v>
+      </c>
+      <c r="F42" s="2">
+        <v>16.181805300000001</v>
+      </c>
+      <c r="I42" s="37">
+        <v>0.30039895</v>
+      </c>
+      <c r="J42" s="40">
+        <v>16.181805300000001</v>
+      </c>
+      <c r="K42" s="43"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="41">
+        <v>0.30039895</v>
+      </c>
+      <c r="N42" s="38">
+        <v>16.181805300000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>-1.0550704</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-72.612886000000003</v>
+      </c>
+      <c r="E43" s="2">
+        <v>-1.0550704</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-72.612886000000003</v>
+      </c>
+      <c r="I43" s="37">
+        <v>-1.0550704</v>
+      </c>
+      <c r="J43" s="40">
+        <v>-72.612886000000003</v>
+      </c>
+      <c r="K43" s="43"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="41">
+        <v>-1.0550704</v>
+      </c>
+      <c r="N43" s="38">
+        <v>-72.612886000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>-1.3722749000000001</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-91.941316999999998</v>
+      </c>
+      <c r="E44" s="2">
+        <v>-1.3722749000000001</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-91.941316999999998</v>
+      </c>
+      <c r="I44" s="37">
+        <v>-1.3722749000000001</v>
+      </c>
+      <c r="J44" s="40">
+        <v>-91.941316999999998</v>
+      </c>
+      <c r="K44" s="44"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="41">
+        <v>-1.3722749000000001</v>
+      </c>
+      <c r="N44" s="38">
+        <v>-91.941316999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>-0.185638</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-4.3803729999999996</v>
+      </c>
+      <c r="E45" s="2">
+        <v>-0.185638</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-4.3803729999999996</v>
+      </c>
+      <c r="I45" s="2">
+        <v>-0.185638</v>
+      </c>
+      <c r="J45" s="2">
+        <v>-4.3803729999999996</v>
+      </c>
+      <c r="M45" s="37">
+        <v>-0.185638</v>
+      </c>
+      <c r="N45" s="37">
+        <v>-4.3803729999999996</v>
+      </c>
+      <c r="O45" s="45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>1.3532987000000001</v>
+      </c>
+      <c r="B46" s="2">
+        <v>97.5186128</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.3532987000000001</v>
+      </c>
+      <c r="F46" s="2">
+        <v>97.5186128</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1.3532987000000001</v>
+      </c>
+      <c r="J46" s="2">
+        <v>97.5186128</v>
+      </c>
+      <c r="M46" s="37">
+        <v>1.3532987000000001</v>
+      </c>
+      <c r="N46" s="37">
+        <v>97.5186128</v>
+      </c>
+      <c r="O46" s="45"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>-1.0717814999999999</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-73.404396000000006</v>
+      </c>
+      <c r="E47" s="2">
+        <v>-1.0717814999999999</v>
+      </c>
+      <c r="F47" s="2">
+        <v>-73.404396000000006</v>
+      </c>
+      <c r="I47" s="2">
+        <v>-1.0717814999999999</v>
+      </c>
+      <c r="J47" s="2">
+        <v>-73.404396000000006</v>
+      </c>
+      <c r="M47" s="37">
+        <v>-1.0717814999999999</v>
+      </c>
+      <c r="N47" s="37">
+        <v>-73.404396000000006</v>
+      </c>
+      <c r="O47" s="45"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>-1.1496786000000001</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-81.747405000000001</v>
+      </c>
+      <c r="E48" s="2">
+        <v>-1.1496786000000001</v>
+      </c>
+      <c r="F48" s="2">
+        <v>-81.747405000000001</v>
+      </c>
+      <c r="I48" s="2">
+        <v>-1.1496786000000001</v>
+      </c>
+      <c r="J48" s="2">
+        <v>-81.747405000000001</v>
+      </c>
+      <c r="M48" s="37">
+        <v>-1.1496786000000001</v>
+      </c>
+      <c r="N48" s="37">
+        <v>-81.747405000000001</v>
+      </c>
+      <c r="O48" s="45"/>
+      <c r="Q48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>0.11503391</v>
+      </c>
+      <c r="B49" s="2">
+        <v>8.1673715199999997</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.11503391</v>
+      </c>
+      <c r="F49" s="2">
+        <v>8.1673715199999997</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.11503391</v>
+      </c>
+      <c r="J49" s="2">
+        <v>8.1673715199999997</v>
+      </c>
+      <c r="M49" s="37">
+        <v>0.11503391</v>
+      </c>
+      <c r="N49" s="37">
+        <v>8.1673715199999997</v>
+      </c>
+      <c r="O49" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K40:K44"/>
+    <mergeCell ref="O45:O49"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="G35:G39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>